--- a/misc/Function_signature_experiments.xlsx
+++ b/misc/Function_signature_experiments.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\burak\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0B1CD0-13A0-41FB-9AE1-6B34114AD652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F95B364-D4B6-40CA-B7FB-54F60129D930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BCB4397-73D3-4D37-8E22-466C714695F5}"/>
+    <workbookView xWindow="1950" yWindow="630" windowWidth="17655" windowHeight="15570" xr2:uid="{1BCB4397-73D3-4D37-8E22-466C714695F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
